--- a/casos de uso.xlsx
+++ b/casos de uso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UCundinamarca\Semestre 6\Sistemas de Informacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAA22D40-0223-4614-BC86-7B6012DB37D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88CB47E7-EAA0-442C-B936-0A7E1057507C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{958AF2F1-24B7-4EEA-811F-0B730C7FA375}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="168">
   <si>
     <t>Casos de Uso</t>
   </si>
@@ -226,18 +226,10 @@
     <t>Si el correo no es válido o no se recibe, el usuario puede solicitar un nuevo correo de verificación.</t>
   </si>
   <si>
-    <t>Confirmar Creación de Cuenta</t>
-  </si>
-  <si>
     <t>Yo, como usuario, quiero confirmar la creación de mi cuenta para poder acceder a la plataforma.</t>
   </si>
   <si>
     <t xml:space="preserve"> El usuario debe haber validado su correo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1. El sistema notifica al usuario que su cuenta ha sido creada y validada exitosamente.
-  2. El usuario puede iniciar sesión en la plataforma.
-</t>
   </si>
   <si>
     <t xml:space="preserve"> No se requiere.</t>
@@ -595,12 +587,244 @@
   <si>
     <t>//</t>
   </si>
+  <si>
+    <t>criterios de aceptacion</t>
+  </si>
+  <si>
+    <t>Estimación de dificultad</t>
+  </si>
+  <si>
+    <t>Mokups Frondend (links)</t>
+  </si>
+  <si>
+    <t>Mokups Backend (desccripcion)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Recepción de Datos: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">El backend recibe los datos del formulario de registro (nombre, correo electrónico, contraseña, etc.).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Validación: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se verifica que los datos cumplan con los requisitos necesarios (formato de correo, longitud de la contraseña, etc.).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Encriptación de Contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> La contraseña se encripta para asegurar su protección antes de almacenarla.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Almacenamiento: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Los datos del usuario se guardan en la base de datos de manera segura.</t>
+    </r>
+  </si>
+  <si>
+    <t>El usuario puede crear una cuenta con un nombre de usuario, un correo y contraseña que le permite ingresar a la plataforma, se hace una validacion de escritura correcta en los datos, la contraseña es encriptada y el usuario se crea en la base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1. El sistema notifica al usuario que su cuenta ha sido creada y validada exitosamente por medio de correo electronico.
+  2. El usuario puede iniciar sesión en la plataforma.
+</t>
+  </si>
+  <si>
+    <t>Captura de pantalla 2024-10-07 115032.png</t>
+  </si>
+  <si>
+    <t>Captura de pantalla 2024-10-07 112210.png</t>
+  </si>
+  <si>
+    <t>El usuario  recibe un correo  al registrado en la plataforma indicando que el registro y creación de la cuenta a sido exitoso y  que ya puede ingresar correctamente, con un hipervinculo hacia la plataforma con la sesion ya iniciada</t>
+  </si>
+  <si>
+    <t>Confirmar Creación de Cuenta con notificación al correo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Configuración del servidor de correo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Primero, se configura un servidor de correo, como SMTP, en el backend para poder enviar correos electrónicos.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creación de una plantilla de correo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Luego, se diseña una plantilla de correo electrónico que incluya un mensaje de bienvenida y confirmación de registro.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generación del correo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Una vez que los datos del usuario se han almacenado correctamente, se genera un correo electrónico utilizando la plantilla creada.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Envío del correo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se utiliza el servidor de correo configurado para enviar el correo electrónico al usuario.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manejo de errores:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se asegura de manejar posibles errores en el envío del correo, como problemas de conexión o direcciones de correo inválidas.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +857,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -754,7 +986,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -779,80 +1011,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -866,24 +1024,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -900,94 +1046,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,74 +1085,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1086,10 +1164,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2163,10 +2237,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4E1E84-2B5F-493A-AB71-26FD9D70F6A8}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="73" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2178,671 +2252,810 @@
     <col min="5" max="5" width="23.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.77734375" style="1" customWidth="1"/>
-    <col min="8" max="16383" width="11.5546875" style="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30" style="1" customWidth="1"/>
+    <col min="12" max="16383" width="11.5546875" style="1"/>
     <col min="16384" max="16384" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="248.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="10">
+        <v>5</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="43"/>
-    </row>
-    <row r="3" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="381.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="C5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="10">
+        <v>3</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="237.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="40" t="s">
+      <c r="C8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="E12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="29" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="41" t="s">
+      <c r="C20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" ht="373.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" ht="324" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" ht="307.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" ht="307.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="29" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" ht="214.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="237.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="C27" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" ht="214.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="48"/>
-    </row>
-    <row r="10" spans="1:7" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="C28" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" ht="198" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="41" t="s">
+      <c r="C30" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="29" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" spans="1:7" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="41" t="s">
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="29" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="46"/>
-    </row>
-    <row r="18" spans="1:7" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:7" ht="373.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="324" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="307.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="307.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="58"/>
-    </row>
-    <row r="27" spans="1:7" ht="214.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="214.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="59"/>
-    </row>
-    <row r="30" spans="1:7" ht="198" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31" s="42" t="s">
-        <v>156</v>
-      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A2:K2"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A2:F2"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A21:F21"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J5" r:id="rId1" display="https://mailunicundiedu-my.sharepoint.com/:i:/g/personal/jeliecerdelgado_ucundinamarca_edu_co/ERCZSAzZ-OtAsoYShKuCMjcBJriu9aoHB2xAh-yPHUEK8A?e=Yx8Bpw" xr:uid="{FC76EBDF-0573-4B72-A332-F2D517281830}"/>
+    <hyperlink ref="J3" r:id="rId2" display="https://mailunicundiedu-my.sharepoint.com/:i:/g/personal/jeliecerdelgado_ucundinamarca_edu_co/EYJvVENKDjpPryxWtZGH9vYBxo9uXdEuZYgGYVuOT5wzzw?e=3Ae2zw" xr:uid="{2D8CC241-0BFC-4AA6-B634-B03A21B06547}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="79863e4e-108d-4cd4-a579-430b454fb7fe" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002199489440C5E349B66632CE2C470A91" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1abbb9be09989577bb19dacf9bd7dce8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="79863e4e-108d-4cd4-a579-430b454fb7fe" xmlns:ns4="f1902867-ed96-4fa5-b30e-68bd4716a0c6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c56e99acf5dee5ccc12bf57c3c92d3aa" ns3:_="" ns4:_="">
     <xsd:import namespace="79863e4e-108d-4cd4-a579-430b454fb7fe"/>
@@ -3075,32 +3288,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBFD2010-9E9F-472F-8A87-2B49CCFCC527}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f1902867-ed96-4fa5-b30e-68bd4716a0c6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="79863e4e-108d-4cd4-a579-430b454fb7fe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F5CC298-0AD7-4AE0-91FF-028C03FAAF2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="79863e4e-108d-4cd4-a579-430b454fb7fe" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62D0533B-88B5-4DDC-A03F-27AE35306CAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3117,4 +3322,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F5CC298-0AD7-4AE0-91FF-028C03FAAF2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBFD2010-9E9F-472F-8A87-2B49CCFCC527}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f1902867-ed96-4fa5-b30e-68bd4716a0c6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="79863e4e-108d-4cd4-a579-430b454fb7fe"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>